--- a/src/main/webapp/template/excel/profitTable.xlsx
+++ b/src/main/webapp/template/excel/profitTable.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,14 +77,18 @@
   </si>
   <si>
     <t>销售利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
@@ -485,11 +489,11 @@
     <col min="6" max="7" width="17.75" customWidth="1"/>
     <col min="8" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
-    <col min="11" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="11" max="13" width="10.625" customWidth="1"/>
+    <col min="14" max="14" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25">
+    <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -505,8 +509,9 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,15 +546,18 @@
         <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
